--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_9.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-785993.5155782073</v>
+        <v>-792430.0401537943</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516699</v>
+        <v>2280223.653892728</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791241</v>
+        <v>419463.0933791244</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12640518.57038603</v>
+        <v>12639928.59099561</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>58.74298078672189</v>
       </c>
       <c r="G2" t="n">
-        <v>129.9367723054937</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -747,16 +747,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>96.5248520122675</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>147.2954742968115</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -823,10 +823,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>19.94568874373761</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>62.73240035371315</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>127.5301200136663</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,10 +905,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>12.725494085322</v>
+        <v>370.3754191126769</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -981,7 +981,7 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
-        <v>107.1635265939519</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
         <v>123.1874880556995</v>
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>175.2139736830806</v>
+        <v>50.643537207228</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,16 +1063,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>54.71777855370976</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>34.2555193966986</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>186.903115715488</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>197.8422002085939</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1294,25 +1294,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>100.3434053864689</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>72.30123682227985</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>186.6472108499503</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>27.3271080534452</v>
+        <v>93.770107113628</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
         <v>314.4797666215418</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993873</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177846</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.92491162465757</v>
       </c>
       <c r="F13" t="n">
         <v>84.67436304442484</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681697</v>
+        <v>53.43679610701776</v>
       </c>
       <c r="H13" t="n">
         <v>82.84545313338901</v>
@@ -1588,10 +1588,10 @@
         <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
-        <v>118.2476489770021</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
         <v>149.8026281767911</v>
@@ -1616,7 +1616,7 @@
         <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>337.9528155621449</v>
@@ -1625,7 +1625,7 @@
         <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372788</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,19 +1661,19 @@
         <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>262.3021544301561</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>63.11282678600772</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="15">
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177846</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465757</v>
+        <v>68.38623813383997</v>
       </c>
       <c r="F16" t="n">
         <v>84.67436304442484</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338901</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>49.29426195803416</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901686</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
         <v>162.2835489187163</v>
@@ -1828,7 +1828,7 @@
         <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
         <v>149.8026281767911</v>
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W17" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y17" t="n">
         <v>262.1658326730205</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E19" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G19" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708475</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369171</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U19" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
@@ -2536,13 +2536,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C26" t="n">
         <v>295.2524720077822</v>
@@ -2561,7 +2561,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F26" t="n">
         <v>318.7342196110055</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414337</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2615,13 +2615,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380451</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S28" t="n">
         <v>106.7966485049597</v>
@@ -2770,13 +2770,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y28" t="n">
         <v>126.8896660972066</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.153340954212</v>
+        <v>283.7098784815731</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820279</v>
+        <v>276.4638267093889</v>
       </c>
       <c r="D32" t="n">
-        <v>275.250260195428</v>
+        <v>268.8067977227892</v>
       </c>
       <c r="E32" t="n">
-        <v>292.22123233455</v>
+        <v>285.7777698619111</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852512</v>
+        <v>299.9455743126122</v>
       </c>
       <c r="G32" t="n">
-        <v>302.694670656806</v>
+        <v>296.2512081841671</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291034</v>
+        <v>208.0623001564645</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838895</v>
+        <v>24.17382596575005</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828908</v>
+        <v>52.06849973565018</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161066</v>
+        <v>108.4856766434677</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696765</v>
+        <v>140.4152824970376</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034459</v>
+        <v>225.905821430807</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813245</v>
+        <v>254.5091249086856</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162029</v>
+        <v>272.7781592435639</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.189344688534</v>
+        <v>279.7458822158951</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.0194812043174</v>
+        <v>70.5760187316785</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459981</v>
+        <v>55.72314698196091</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643953</v>
+        <v>41.29686219380064</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931864</v>
+        <v>41.22330424667975</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908591</v>
+        <v>42.97275566644701</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147805</v>
+        <v>53.79159358883915</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805009</v>
+        <v>41.14384575541119</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922202</v>
+        <v>18.98356133658312</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367794</v>
+        <v>9.88205970103904</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920526</v>
+        <v>88.00800320656636</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133773</v>
+        <v>120.5819415407384</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404472</v>
+        <v>169.8044840678083</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273131</v>
+        <v>150.5396319546742</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480633</v>
+        <v>167.7171782754244</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947759</v>
+        <v>118.959599222137</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714522</v>
+        <v>108.1010207988133</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E35" t="n">
         <v>268.1977203190365</v>
@@ -3281,10 +3281,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E37" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G37" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
@@ -3484,13 +3484,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="41">
@@ -3752,13 +3752,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3800,10 +3800,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y41" t="n">
         <v>262.1658326730205</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H43" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U43" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C44" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E44" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F44" t="n">
         <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277559</v>
+        <v>34.4884501927755</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U44" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W44" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357242</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H46" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U46" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1832.676160441268</v>
+        <v>907.1778479944169</v>
       </c>
       <c r="C2" t="n">
-        <v>1439.500658944198</v>
+        <v>514.0023464973474</v>
       </c>
       <c r="D2" t="n">
-        <v>1054.059530160866</v>
+        <v>514.0023464973474</v>
       </c>
       <c r="E2" t="n">
-        <v>1054.059530160866</v>
+        <v>514.0023464973474</v>
       </c>
       <c r="F2" t="n">
-        <v>637.1650916908437</v>
+        <v>454.6660022683354</v>
       </c>
       <c r="G2" t="n">
-        <v>505.9158267357996</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022902</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475499</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K2" t="n">
-        <v>402.4780154222168</v>
+        <v>545.1353756926285</v>
       </c>
       <c r="L2" t="n">
-        <v>895.7983071407457</v>
+        <v>545.1353756926285</v>
       </c>
       <c r="M2" t="n">
-        <v>1206.932085207959</v>
+        <v>588.4870060424374</v>
       </c>
       <c r="N2" t="n">
-        <v>1734.743368845421</v>
+        <v>1102.089684652126</v>
       </c>
       <c r="O2" t="n">
-        <v>2174.782969737749</v>
+        <v>1542.129285544455</v>
       </c>
       <c r="P2" t="n">
-        <v>2174.782969737749</v>
+        <v>1890.316777675977</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="S2" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="T2" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="U2" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="V2" t="n">
-        <v>1832.676160441268</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="W2" t="n">
-        <v>1832.676160441268</v>
+        <v>1704.163302785213</v>
       </c>
       <c r="X2" t="n">
-        <v>1832.676160441268</v>
+        <v>1704.163302785213</v>
       </c>
       <c r="Y2" t="n">
-        <v>1832.676160441268</v>
+        <v>1307.672593705814</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>556.1927859813202</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>405.5385555414124</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>275.4495881628927</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>139.0030972737804</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822425</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="H3" t="n">
-        <v>92.8829133828434</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="J3" t="n">
-        <v>43.49565939475499</v>
+        <v>154.6182289760659</v>
       </c>
       <c r="K3" t="n">
-        <v>98.17903122826925</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L3" t="n">
-        <v>581.7451171265825</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="M3" t="n">
-        <v>1120.003902136675</v>
+        <v>921.5731989359482</v>
       </c>
       <c r="N3" t="n">
-        <v>1658.262687146768</v>
+        <v>921.5731989359482</v>
       </c>
       <c r="O3" t="n">
-        <v>2174.782969737749</v>
+        <v>1435.175877545637</v>
       </c>
       <c r="P3" t="n">
-        <v>2174.782969737749</v>
+        <v>1840.797246262035</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="R3" t="n">
-        <v>2174.782969737749</v>
+        <v>2051.24529471499</v>
       </c>
       <c r="S3" t="n">
-        <v>2174.782969737749</v>
+        <v>1916.314617614858</v>
       </c>
       <c r="T3" t="n">
-        <v>2025.999662367233</v>
+        <v>1739.330805813767</v>
       </c>
       <c r="U3" t="n">
-        <v>1815.936519045874</v>
+        <v>1529.267662492409</v>
       </c>
       <c r="V3" t="n">
-        <v>1593.396517416941</v>
+        <v>1306.727660863476</v>
       </c>
       <c r="W3" t="n">
-        <v>1363.279271550228</v>
+        <v>1076.610414996763</v>
       </c>
       <c r="X3" t="n">
-        <v>1173.97219390024</v>
+        <v>887.3033373467742</v>
       </c>
       <c r="Y3" t="n">
-        <v>994.6579769757473</v>
+        <v>707.9891204222815</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1592.367454873814</v>
+        <v>198.8291815433656</v>
       </c>
       <c r="C4" t="n">
-        <v>1592.367454873814</v>
+        <v>198.8291815433656</v>
       </c>
       <c r="D4" t="n">
-        <v>1592.367454873814</v>
+        <v>198.8291815433656</v>
       </c>
       <c r="E4" t="n">
-        <v>1436.808642733017</v>
+        <v>198.8291815433656</v>
       </c>
       <c r="F4" t="n">
-        <v>1436.808642733017</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="G4" t="n">
-        <v>1436.808642733017</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="H4" t="n">
-        <v>1436.808642733017</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="I4" t="n">
-        <v>1303.714217370095</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="J4" t="n">
-        <v>1273.335947196197</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="K4" t="n">
-        <v>1355.170988306138</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L4" t="n">
-        <v>1519.298628179938</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>1705.590206518202</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>1888.779840549412</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>2051.48460759112</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>2171.360773367698</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>2174.782969737749</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>2174.782969737749</v>
+        <v>922.8031089506812</v>
       </c>
       <c r="S4" t="n">
-        <v>2174.782969737749</v>
+        <v>719.9870251332305</v>
       </c>
       <c r="T4" t="n">
-        <v>1939.063917905983</v>
+        <v>484.2679733014646</v>
       </c>
       <c r="U4" t="n">
-        <v>1939.063917905983</v>
+        <v>198.8291815433656</v>
       </c>
       <c r="V4" t="n">
-        <v>1875.697856942637</v>
+        <v>198.8291815433656</v>
       </c>
       <c r="W4" t="n">
-        <v>1592.367454873814</v>
+        <v>198.8291815433656</v>
       </c>
       <c r="X4" t="n">
-        <v>1592.367454873814</v>
+        <v>198.8291815433656</v>
       </c>
       <c r="Y4" t="n">
-        <v>1592.367454873814</v>
+        <v>198.8291815433656</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>598.3307523804774</v>
+        <v>817.9176846873006</v>
       </c>
       <c r="C5" t="n">
-        <v>469.51244933637</v>
+        <v>424.7421831902312</v>
       </c>
       <c r="D5" t="n">
-        <v>469.51244933637</v>
+        <v>424.7421831902312</v>
       </c>
       <c r="E5" t="n">
-        <v>469.51244933637</v>
+        <v>424.7421831902312</v>
       </c>
       <c r="F5" t="n">
-        <v>456.6584149067518</v>
+        <v>50.62559822793128</v>
       </c>
       <c r="G5" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="K5" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="L5" t="n">
-        <v>536.8159511132839</v>
+        <v>534.8235384748673</v>
       </c>
       <c r="M5" t="n">
-        <v>1075.074736123377</v>
+        <v>1028.526606934766</v>
       </c>
       <c r="N5" t="n">
-        <v>1602.886019760839</v>
+        <v>1542.129285544455</v>
       </c>
       <c r="O5" t="n">
-        <v>2042.925620653167</v>
+        <v>1542.129285544455</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.782969737749</v>
+        <v>1890.316777675977</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.782969737749</v>
+        <v>2037.169424102447</v>
       </c>
       <c r="S5" t="n">
-        <v>2008.2694146788</v>
+        <v>1870.655869043498</v>
       </c>
       <c r="T5" t="n">
-        <v>1784.768812238216</v>
+        <v>1870.655869043498</v>
       </c>
       <c r="U5" t="n">
-        <v>1784.768812238216</v>
+        <v>1614.903139478096</v>
       </c>
       <c r="V5" t="n">
-        <v>1784.768812238216</v>
+        <v>1614.903139478096</v>
       </c>
       <c r="W5" t="n">
-        <v>1784.768812238216</v>
+        <v>1614.903139478096</v>
       </c>
       <c r="X5" t="n">
-        <v>1395.316207171273</v>
+        <v>1614.903139478096</v>
       </c>
       <c r="Y5" t="n">
-        <v>998.8254980918744</v>
+        <v>1218.412430398698</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>814.661138104211</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C6" t="n">
-        <v>664.0069076643032</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D6" t="n">
-        <v>533.9179402857835</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822425</v>
+        <v>179.187917143826</v>
       </c>
       <c r="H6" t="n">
-        <v>92.8829133828434</v>
+        <v>90.89050074442692</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144824</v>
+        <v>154.6182289760659</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L6" t="n">
-        <v>476.3497876767088</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M6" t="n">
-        <v>480.0174418653872</v>
+        <v>1435.175877545637</v>
       </c>
       <c r="N6" t="n">
-        <v>1018.27622687548</v>
+        <v>1435.175877545637</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.796509466461</v>
+        <v>1435.175877545637</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182859</v>
+        <v>1840.797246262035</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="S6" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816925</v>
       </c>
       <c r="T6" t="n">
-        <v>1997.799157936658</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U6" t="n">
-        <v>1787.736014615299</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V6" t="n">
-        <v>1565.196012986366</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W6" t="n">
-        <v>1335.078767119653</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X6" t="n">
-        <v>1145.771689469665</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y6" t="n">
-        <v>966.4574725451723</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>400.1146220458172</v>
+        <v>231.5833325389845</v>
       </c>
       <c r="C7" t="n">
-        <v>400.1146220458172</v>
+        <v>231.5833325389845</v>
       </c>
       <c r="D7" t="n">
-        <v>400.1146220458172</v>
+        <v>231.5833325389845</v>
       </c>
       <c r="E7" t="n">
-        <v>400.1146220458172</v>
+        <v>231.5833325389845</v>
       </c>
       <c r="F7" t="n">
-        <v>344.8441386582316</v>
+        <v>231.5833325389845</v>
       </c>
       <c r="G7" t="n">
-        <v>176.5900847576771</v>
+        <v>231.5833325389845</v>
       </c>
       <c r="H7" t="n">
-        <v>176.5900847576771</v>
+        <v>76.10478150047851</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>821.0416925688844</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="T7" t="n">
-        <v>585.3226407371185</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="U7" t="n">
-        <v>585.3226407371185</v>
+        <v>454.6953937223412</v>
       </c>
       <c r="V7" t="n">
-        <v>585.3226407371185</v>
+        <v>454.6953937223412</v>
       </c>
       <c r="W7" t="n">
-        <v>585.3226407371185</v>
+        <v>454.6953937223412</v>
       </c>
       <c r="X7" t="n">
-        <v>585.3226407371185</v>
+        <v>454.6953937223412</v>
       </c>
       <c r="Y7" t="n">
-        <v>585.3226407371185</v>
+        <v>231.5833325389845</v>
       </c>
     </row>
     <row r="8">
@@ -4778,10 +4778,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1742.373856308063</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="C8" t="n">
-        <v>1742.373856308063</v>
+        <v>2127.814985091395</v>
       </c>
       <c r="D8" t="n">
         <v>1742.373856308063</v>
@@ -4805,22 +4805,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>47.31297010154361</v>
+        <v>358.4764287842802</v>
       </c>
       <c r="L8" t="n">
-        <v>540.6332618200724</v>
+        <v>851.7967205028091</v>
       </c>
       <c r="M8" t="n">
-        <v>864.7645682749193</v>
+        <v>1397.79762054739</v>
       </c>
       <c r="N8" t="n">
-        <v>1392.575851912381</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4847,7 +4847,7 @@
         <v>2327.655591362702</v>
       </c>
       <c r="Y8" t="n">
-        <v>1931.164882283303</v>
+        <v>2327.655591362702</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154367</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>1209.141762214911</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805892</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C10" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154361</v>
+        <v>847.4030175052487</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154361</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>386.3238676264566</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>313.2923152807194</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V10" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W10" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X10" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1653.0370227692</v>
+        <v>1589.282783693955</v>
       </c>
       <c r="C11" t="n">
-        <v>1331.657796418324</v>
+        <v>1267.903557343079</v>
       </c>
       <c r="D11" t="n">
-        <v>1331.657796418324</v>
+        <v>1267.903557343079</v>
       </c>
       <c r="E11" t="n">
-        <v>1000.870546681062</v>
+        <v>937.1163076058176</v>
       </c>
       <c r="F11" t="n">
-        <v>655.7723833572345</v>
+        <v>592.0181442819894</v>
       </c>
       <c r="G11" t="n">
-        <v>314.4059029914315</v>
+        <v>250.651663916187</v>
       </c>
       <c r="H11" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3078.353245757852</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>3078.353245757852</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U11" t="n">
-        <v>2894.396791338645</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="V11" t="n">
-        <v>2624.086257188357</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="W11" t="n">
-        <v>2624.086257188357</v>
+        <v>2560.332018113112</v>
       </c>
       <c r="X11" t="n">
-        <v>2306.429927267608</v>
+        <v>2242.675688192362</v>
       </c>
       <c r="Y11" t="n">
-        <v>1981.735493334403</v>
+        <v>1917.981254259158</v>
       </c>
     </row>
     <row r="12">
@@ -5127,10 +5127,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O12" t="n">
         <v>1740.468202408463</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.3326729474579</v>
+        <v>430.3683121728534</v>
       </c>
       <c r="C13" t="n">
-        <v>472.9238301596411</v>
+        <v>430.3683121728534</v>
       </c>
       <c r="D13" t="n">
-        <v>389.0869922083497</v>
+        <v>430.3683121728534</v>
       </c>
       <c r="E13" t="n">
-        <v>389.0869922083497</v>
+        <v>346.6057751782497</v>
       </c>
       <c r="F13" t="n">
-        <v>303.5573325675165</v>
+        <v>261.0761155374165</v>
       </c>
       <c r="G13" t="n">
         <v>207.0995538131559</v>
@@ -5197,19 +5197,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774626</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581892</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027734</v>
       </c>
       <c r="M13" t="n">
         <v>746.0697615118222</v>
       </c>
       <c r="N13" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138161</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
@@ -5218,13 +5218,13 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
         <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1313.608118922021</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T13" t="n">
         <v>1149.68534223645</v>
@@ -5236,13 +5236,13 @@
         <v>955.5022722034677</v>
       </c>
       <c r="W13" t="n">
-        <v>836.0602025297281</v>
+        <v>743.9681452808392</v>
       </c>
       <c r="X13" t="n">
-        <v>836.0602025297281</v>
+        <v>581.6840982100161</v>
       </c>
       <c r="Y13" t="n">
-        <v>684.7444164925653</v>
+        <v>430.3683121728534</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1966.681876406338</v>
+        <v>1688.124554843851</v>
       </c>
       <c r="C14" t="n">
-        <v>1645.302650055462</v>
+        <v>1366.745328492976</v>
       </c>
       <c r="D14" t="n">
-        <v>1331.657796418324</v>
+        <v>1053.100474855838</v>
       </c>
       <c r="E14" t="n">
-        <v>1000.870546681062</v>
+        <v>722.3132251185757</v>
       </c>
       <c r="F14" t="n">
-        <v>655.7723833572339</v>
+        <v>722.3132251185757</v>
       </c>
       <c r="G14" t="n">
-        <v>314.405902991431</v>
+        <v>380.9467447527728</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411553</v>
+        <v>128.6599694654572</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5309,19 +5309,19 @@
         <v>2859.534777998631</v>
       </c>
       <c r="U14" t="n">
-        <v>2859.534777998631</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V14" t="n">
-        <v>2594.58310685706</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W14" t="n">
-        <v>2295.380346971541</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="X14" t="n">
-        <v>2295.380346971541</v>
+        <v>2341.517459342259</v>
       </c>
       <c r="Y14" t="n">
-        <v>2295.380346971541</v>
+        <v>2016.823025409054</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1173.45686322911</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N15" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O15" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P15" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>448.7226219791498</v>
+        <v>216.7257955609485</v>
       </c>
       <c r="C16" t="n">
-        <v>448.7226219791498</v>
+        <v>216.7257955609485</v>
       </c>
       <c r="D16" t="n">
-        <v>364.8857840278586</v>
+        <v>216.7257955609485</v>
       </c>
       <c r="E16" t="n">
-        <v>281.123247033255</v>
+        <v>147.6487873449487</v>
       </c>
       <c r="F16" t="n">
-        <v>195.5935873924218</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G16" t="n">
-        <v>195.5935873924218</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H16" t="n">
-        <v>111.9113115001096</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774628</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581892</v>
+        <v>254.9154847581895</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027736</v>
+        <v>489.410653902774</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118228</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138161</v>
+        <v>999.6269248138167</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
       </c>
       <c r="P16" t="n">
-        <v>1422.942916173672</v>
+        <v>1422.942916173673</v>
       </c>
       <c r="Q16" t="n">
         <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
-        <v>1496.732641814508</v>
+        <v>1444.627927593279</v>
       </c>
       <c r="S16" t="n">
-        <v>1496.732641814508</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T16" t="n">
-        <v>1332.809865128936</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="U16" t="n">
-        <v>1119.16734851703</v>
+        <v>936.0428256245448</v>
       </c>
       <c r="V16" t="n">
-        <v>924.9842784840486</v>
+        <v>741.8597555915628</v>
       </c>
       <c r="W16" t="n">
-        <v>713.4501515614201</v>
+        <v>530.3256286689343</v>
       </c>
       <c r="X16" t="n">
-        <v>713.4501515614201</v>
+        <v>368.0415815981113</v>
       </c>
       <c r="Y16" t="n">
-        <v>562.1343655242573</v>
+        <v>216.7257955609485</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498591</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975454</v>
+        <v>827.889542297544</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099305</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H17" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924229</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5543,10 +5543,10 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V17" t="n">
         <v>2644.789635573994</v>
@@ -5555,10 +5555,10 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443164</v>
       </c>
     </row>
     <row r="18">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5680,43 +5680,43 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>494.3733870261212</v>
+        <v>499.9530296343059</v>
       </c>
       <c r="N19" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879436</v>
       </c>
       <c r="O19" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296516</v>
       </c>
       <c r="P19" t="n">
-        <v>960.1439538756169</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q19" t="n">
-        <v>1092.622519868097</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984002</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
     <row r="20">
@@ -5738,13 +5738,13 @@
         <v>827.8895422975454</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H20" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5795,7 +5795,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="21">
@@ -5832,22 +5832,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>175.2341099238429</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>803.0057595505241</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N21" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O21" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,52 +5884,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>442.7178209184691</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>629.0093992567331</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879423</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296503</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5972,16 +5972,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H23" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6011,10 +6011,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6026,7 +6026,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
@@ -6066,25 +6066,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>689.8907773307967</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N24" t="n">
-        <v>1345.668748541356</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O24" t="n">
-        <v>1862.189031132337</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P24" t="n">
-        <v>2267.810399848734</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6121,52 +6121,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229933</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222412</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>313.661451296041</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N25" t="n">
-        <v>806.619390679759</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O25" t="n">
-        <v>969.3241577214671</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P25" t="n">
-        <v>1089.200323498046</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
-        <v>1092.622519868097</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6175,22 +6175,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6206,16 +6206,16 @@
         <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218602</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390263</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142178</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
@@ -6236,16 +6236,16 @@
         <v>1988.523626565243</v>
       </c>
       <c r="N26" t="n">
-        <v>2546.304425485128</v>
+        <v>2609.386271932278</v>
       </c>
       <c r="O26" t="n">
-        <v>2986.344026377456</v>
+        <v>3135.209895105043</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508978</v>
+        <v>3483.397387236565</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.4284403795</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="R26" t="n">
         <v>3668.242947377513</v>
@@ -6312,13 +6312,13 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>1617.556722754498</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="N27" t="n">
-        <v>1640.815019777314</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O27" t="n">
-        <v>2157.335302368295</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P27" t="n">
         <v>2157.335302368295</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985344</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517123</v>
+        <v>429.0656615517127</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414155</v>
+        <v>368.3732297414158</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878067</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
         <v>245.3698453879679</v>
@@ -6376,22 +6376,22 @@
         <v>172.0564727746018</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232841</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796859</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
-        <v>311.528880919201</v>
+        <v>311.5288809192008</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225735</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904115</v>
+        <v>848.0508225904109</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6406,28 +6406,28 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R28" t="n">
-        <v>1660.488724648016</v>
+        <v>1660.488724648017</v>
       </c>
       <c r="S28" t="n">
         <v>1552.613322117754</v>
       </c>
       <c r="T28" t="n">
-        <v>1411.834951573176</v>
+        <v>1411.834951573177</v>
       </c>
       <c r="U28" t="n">
         <v>1221.336841102266</v>
       </c>
       <c r="V28" t="n">
-        <v>1050.298177210278</v>
+        <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286442</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988156</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026472</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="29">
@@ -6467,19 +6467,19 @@
         <v>763.0997113429868</v>
       </c>
       <c r="L29" t="n">
-        <v>1349.471364791089</v>
+        <v>1286.389518343938</v>
       </c>
       <c r="M29" t="n">
-        <v>1988.523626565243</v>
+        <v>1832.390418388519</v>
       </c>
       <c r="N29" t="n">
-        <v>2609.386271932278</v>
+        <v>2453.253063755554</v>
       </c>
       <c r="O29" t="n">
-        <v>3049.425872824607</v>
+        <v>2893.292664647883</v>
       </c>
       <c r="P29" t="n">
-        <v>3397.613364956129</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.4284403795</v>
@@ -6540,25 +6540,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K30" t="n">
-        <v>218.9633184712348</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>702.529404369548</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>1330.301053996229</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="N30" t="n">
-        <v>1986.079025206788</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O30" t="n">
-        <v>1986.079025206788</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P30" t="n">
-        <v>2391.700393923186</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985345</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517126</v>
+        <v>429.0656615517122</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414155</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878064</v>
       </c>
       <c r="F31" t="n">
         <v>245.3698453879678</v>
@@ -6613,58 +6613,58 @@
         <v>172.0564727746017</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232841</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796862</v>
+        <v>136.6424780796859</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192015</v>
+        <v>311.5288809192008</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225736</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904118</v>
+        <v>848.050822590411</v>
       </c>
       <c r="N31" t="n">
-        <v>1124.291818351194</v>
+        <v>1124.291818351193</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P31" t="n">
-        <v>1592.975474628628</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q31" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648017</v>
+        <v>1660.488724648016</v>
       </c>
       <c r="S31" t="n">
-        <v>1552.613322117755</v>
+        <v>1552.613322117754</v>
       </c>
       <c r="T31" t="n">
-        <v>1411.834951573177</v>
+        <v>1411.834951573176</v>
       </c>
       <c r="U31" t="n">
-        <v>1221.336841102267</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210279</v>
+        <v>1050.298177210278</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286452</v>
+        <v>861.9084564286443</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988166</v>
+        <v>722.7688154988158</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026483</v>
+        <v>594.5974356026475</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.35112422213</v>
+        <v>1743.798875918591</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303046</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800457</v>
+        <v>1193.020467401239</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463666</v>
+        <v>904.3560533993086</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057088</v>
+        <v>601.3807258108113</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230764</v>
+        <v>302.1370811803395</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189323</v>
+        <v>91.97314162835532</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234516</v>
       </c>
       <c r="J32" t="n">
-        <v>319.4704138766599</v>
+        <v>323.8570290861559</v>
       </c>
       <c r="K32" t="n">
-        <v>783.7258626311918</v>
+        <v>794.4915056886005</v>
       </c>
       <c r="L32" t="n">
-        <v>1362.45633719573</v>
+        <v>1330.871943270416</v>
       </c>
       <c r="M32" t="n">
-        <v>1908.45723724031</v>
+        <v>1876.872843314997</v>
       </c>
       <c r="N32" t="n">
-        <v>2436.268520877773</v>
+        <v>2404.684126952459</v>
       </c>
       <c r="O32" t="n">
-        <v>2876.308121770101</v>
+        <v>2844.723727844787</v>
       </c>
       <c r="P32" t="n">
-        <v>3224.495613901623</v>
+        <v>3192.911219976309</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042572</v>
+        <v>3377.756780117258</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038082</v>
+        <v>3377.756780117258</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908497</v>
+        <v>3325.162335939834</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397278</v>
+        <v>3215.580844380775</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761242</v>
+        <v>3073.747225696899</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394124</v>
+        <v>2845.559527281942</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291776</v>
+        <v>2588.479603131755</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154197</v>
+        <v>2312.946108946337</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.374510748463</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423762</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024684</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239487</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348364</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179682</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904336</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234516</v>
       </c>
       <c r="J33" t="n">
-        <v>69.54754824076164</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>354.4036963840245</v>
+        <v>500.409263884299</v>
       </c>
       <c r="L33" t="n">
-        <v>837.9697822823377</v>
+        <v>983.9753497826123</v>
       </c>
       <c r="M33" t="n">
-        <v>1465.741431909019</v>
+        <v>983.9753497826123</v>
       </c>
       <c r="N33" t="n">
-        <v>1465.741431909019</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1982.2617145</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2387.883083216398</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183338</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965132</v>
+        <v>365.6713676929732</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918669</v>
+        <v>309.3853606404874</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237462</v>
+        <v>267.6713584245272</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123132</v>
+        <v>226.0316571652547</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546507</v>
+        <v>182.6248332597527</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834608</v>
+        <v>128.2898902407233</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431925</v>
+        <v>86.73045008374226</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234516</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703943</v>
+        <v>67.55513560234516</v>
       </c>
       <c r="K34" t="n">
-        <v>226.8819394803362</v>
+        <v>149.390176712287</v>
       </c>
       <c r="L34" t="n">
-        <v>496.2826720812062</v>
+        <v>389.5437325909007</v>
       </c>
       <c r="M34" t="n">
-        <v>787.8473431465403</v>
+        <v>575.8353109291647</v>
       </c>
       <c r="N34" t="n">
-        <v>1076.31006990482</v>
+        <v>870.6770655353566</v>
       </c>
       <c r="O34" t="n">
-        <v>1344.287929673598</v>
+        <v>1145.033953152047</v>
       </c>
       <c r="P34" t="n">
-        <v>1482.691419376593</v>
+        <v>1264.910118928626</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746644</v>
+        <v>1379.98443587366</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308586</v>
+        <v>1370.002557387761</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.2176684205</v>
+        <v>1281.105584451836</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518098</v>
+        <v>1159.305643501595</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689364</v>
+        <v>987.7859626250211</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395524</v>
+        <v>835.7257283273703</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000945</v>
+        <v>666.314437140073</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124421</v>
+        <v>546.1532258045811</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.02107175845</v>
+        <v>436.9602755027495</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C35" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H35" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6980,7 +6980,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="36">
@@ -7023,13 +7023,13 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>1606.310991511064</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N36" t="n">
-        <v>1606.310991511064</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
-        <v>2122.831274102045</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
         <v>2146.089571124861</v>
@@ -7069,52 +7069,52 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>407.3644357128483</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>593.6560140511123</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N37" t="n">
-        <v>812.1990332879423</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296503</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7123,22 +7123,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="38">
@@ -7157,16 +7157,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924224</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7196,10 +7196,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7208,10 +7208,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
@@ -7260,10 +7260,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>1084.690231197904</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N39" t="n">
-        <v>1740.468202408463</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O39" t="n">
         <v>1740.468202408463</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7342,16 +7342,16 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>677.5630210573304</v>
+        <v>806.619390679759</v>
       </c>
       <c r="O40" t="n">
-        <v>969.3241577214669</v>
+        <v>969.3241577214671</v>
       </c>
       <c r="P40" t="n">
-        <v>1089.200323498045</v>
+        <v>1089.200323498046</v>
       </c>
       <c r="Q40" t="n">
-        <v>1092.622519868096</v>
+        <v>1092.622519868097</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U40" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="41">
@@ -7403,7 +7403,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7436,10 +7436,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T41" t="n">
-        <v>2979.295701071062</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U41" t="n">
         <v>2855.219708188068</v>
@@ -7454,7 +7454,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y41" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7488,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>1493.196009291336</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.973980501895</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H43" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7582,37 +7582,37 @@
         <v>677.5630210573304</v>
       </c>
       <c r="O43" t="n">
-        <v>969.3241577214669</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P43" t="n">
-        <v>1089.200323498045</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q43" t="n">
-        <v>1092.622519868096</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S43" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D44" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498591</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G44" t="n">
         <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924217</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7673,22 +7673,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T44" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X44" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y44" t="n">
         <v>1882.877496443165</v>
@@ -7728,19 +7728,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L45" t="n">
-        <v>865.4243596646552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M45" t="n">
-        <v>1493.196009291336</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N45" t="n">
-        <v>1493.196009291336</v>
+        <v>1345.668748541356</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>1862.189031132337</v>
       </c>
       <c r="P45" t="n">
         <v>2146.089571124861</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885596</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369567</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218805</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072679</v>
+        <v>87.3386307407266</v>
       </c>
       <c r="H46" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462911</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>161.4017547291066</v>
+        <v>67.69877031229839</v>
       </c>
       <c r="K46" t="n">
-        <v>243.2367958390484</v>
+        <v>149.5338114222403</v>
       </c>
       <c r="L46" t="n">
-        <v>407.3644357128482</v>
+        <v>442.7178209184686</v>
       </c>
       <c r="M46" t="n">
-        <v>593.6560140511123</v>
+        <v>629.0093992567326</v>
       </c>
       <c r="N46" t="n">
-        <v>776.8456480823215</v>
+        <v>812.1990332879418</v>
       </c>
       <c r="O46" t="n">
-        <v>939.5504151240295</v>
+        <v>974.9038003296498</v>
       </c>
       <c r="P46" t="n">
-        <v>1087.158956162813</v>
+        <v>1094.779966106228</v>
       </c>
       <c r="Q46" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T46" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161904</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
-        <v>464.0015950999625</v>
+        <v>193.5145772035949</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920154</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8055,28 +8055,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>144.8326644580952</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837492</v>
+        <v>544.1202775014896</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886039</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431202</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8222,19 +8222,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321646</v>
+        <v>648.4150197390389</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920154</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
-        <v>283.4906887405029</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8298,16 +8298,16 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>96.09182324999716</v>
+        <v>574.4602701392428</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886039</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
@@ -8453,13 +8453,13 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>457.3649271011935</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>477.1304116531281</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
@@ -8468,10 +8468,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8529,7 +8529,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
         <v>412.5657697396227</v>
@@ -8538,19 +8538,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>454.5321323046934</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>507.6329599720908</v>
       </c>
       <c r="P9" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8775,13 +8775,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>228.1998931286865</v>
       </c>
       <c r="P12" t="n">
         <v>496.801919078302</v>
@@ -8942,7 +8942,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P14" t="n">
-        <v>502.0059847475131</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
         <v>331.2113854294513</v>
@@ -9003,19 +9003,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>577.006990218999</v>
       </c>
       <c r="N15" t="n">
-        <v>136.3731801151487</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9024,7 +9024,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9480,16 +9480,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>747.298629845933</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9498,7 +9498,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9714,19 +9714,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9735,7 +9735,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>204.7702368236083</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9960,16 +9960,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
-        <v>108.8653421701423</v>
+        <v>333.2595653118427</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
         <v>327.7205688679246</v>
@@ -10188,28 +10188,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>236.6660863673582</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118427</v>
       </c>
       <c r="O30" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10425,19 +10425,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>377.3304183063262</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118433</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10446,7 +10446,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10671,16 +10671,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>110.5765941352903</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
         <v>327.7205688679246</v>
@@ -10908,13 +10908,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>199.6102425680207</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
         <v>496.801919078302</v>
@@ -11136,7 +11136,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
         <v>412.5657697396227</v>
@@ -11145,19 +11145,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
-        <v>326.5064297756122</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11376,22 +11376,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M45" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
-        <v>342.4574509263909</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>373.8515870339854</v>
       </c>
       <c r="Q45" t="n">
         <v>327.7205688679246</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>63.11669668449199</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372809</v>
+        <v>65.87543334372788</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>66.4429990601828</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.42475435993873</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177846</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465757</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>42.05640485979922</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>91.17113667640008</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372788</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,19 +23549,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>5.305274378628724</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215418</v>
+        <v>251.3669398355341</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.4474895938729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
         <v>97.42475435993873</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177846</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>14.5386734908176</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>95.49320096681697</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338901</v>
       </c>
       <c r="I16" t="n">
-        <v>11.39090675652678</v>
+        <v>60.68516871456094</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901686</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1110895.987934404</v>
+        <v>1110595.214127524</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1110895.987934404</v>
+        <v>1110595.214127524</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>984994.3358809999</v>
+        <v>984994.3358810002</v>
       </c>
     </row>
     <row r="6">
@@ -26314,16 +26314,16 @@
         <v>162298.9602840211</v>
       </c>
       <c r="C2" t="n">
-        <v>162298.960284021</v>
+        <v>162298.9602840211</v>
       </c>
       <c r="D2" t="n">
         <v>162298.960284021</v>
       </c>
       <c r="E2" t="n">
+        <v>143423.1210819606</v>
+      </c>
+      <c r="F2" t="n">
         <v>143423.1210819607</v>
-      </c>
-      <c r="F2" t="n">
-        <v>143423.1210819606</v>
       </c>
       <c r="G2" t="n">
         <v>162298.9602840215</v>
@@ -26341,19 +26341,19 @@
         <v>162298.9602840213</v>
       </c>
       <c r="L2" t="n">
-        <v>162298.9602840209</v>
+        <v>162298.9602840208</v>
       </c>
       <c r="M2" t="n">
         <v>162298.9602840215</v>
       </c>
       <c r="N2" t="n">
+        <v>162298.9602840215</v>
+      </c>
+      <c r="O2" t="n">
+        <v>162298.9602840215</v>
+      </c>
+      <c r="P2" t="n">
         <v>162298.9602840214</v>
-      </c>
-      <c r="O2" t="n">
-        <v>162298.9602840214</v>
-      </c>
-      <c r="P2" t="n">
-        <v>162298.9602840215</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918559</v>
+        <v>173858.6570340554</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062187</v>
+        <v>22558.42953401326</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
@@ -26378,34 +26378,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668198</v>
+        <v>47425.32553668191</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945026</v>
+        <v>200285.8640399296</v>
       </c>
       <c r="K3" t="n">
-        <v>1.13686837721616e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.4717972855</v>
+        <v>62456.24177539655</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.829459623</v>
+        <v>43252.52447081117</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277115</v>
+        <v>27767.69404277119</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>178075.8047892385</v>
+        <v>184487.2052585814</v>
       </c>
       <c r="C4" t="n">
-        <v>178075.8047892385</v>
+        <v>184487.2052585814</v>
       </c>
       <c r="D4" t="n">
         <v>165792.0503172815</v>
@@ -26442,10 +26442,10 @@
         <v>135498.1974718596</v>
       </c>
       <c r="K4" t="n">
-        <v>135498.1974718596</v>
+        <v>135498.1974718595</v>
       </c>
       <c r="L4" t="n">
-        <v>135242.6235713761</v>
+        <v>135109.2289623214</v>
       </c>
       <c r="M4" t="n">
         <v>134747.7050074764</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001379</v>
+        <v>65170.06753481726</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001379</v>
+        <v>65170.06753481726</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26482,13 +26482,13 @@
         <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="H5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="J5" t="n">
         <v>63659.0452539195</v>
@@ -26497,13 +26497,13 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.7362917385</v>
+        <v>60823.19813315426</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-264666.0939370872</v>
+        <v>-261216.9695434329</v>
       </c>
       <c r="C6" t="n">
-        <v>-82461.14564523127</v>
+        <v>-87358.31250937757</v>
       </c>
       <c r="D6" t="n">
-        <v>-87900.68762105549</v>
+        <v>-95636.97684444691</v>
       </c>
       <c r="E6" t="n">
-        <v>-108874.2486078186</v>
+        <v>-109083.9801545083</v>
       </c>
       <c r="F6" t="n">
-        <v>3248.312866225795</v>
+        <v>3038.581319536349</v>
       </c>
       <c r="G6" t="n">
-        <v>-78043.83957565663</v>
+        <v>-78043.83957565646</v>
       </c>
       <c r="H6" t="n">
-        <v>-30618.51403897462</v>
+        <v>-30618.51403897468</v>
       </c>
       <c r="I6" t="n">
-        <v>-30618.51403897462</v>
+        <v>-30618.51403897466</v>
       </c>
       <c r="J6" t="n">
-        <v>-243660.4316362603</v>
+        <v>-237144.1464816873</v>
       </c>
       <c r="K6" t="n">
-        <v>-36858.28244175777</v>
+        <v>-36858.28244175771</v>
       </c>
       <c r="L6" t="n">
-        <v>-92040.87137637922</v>
+        <v>-96089.70858685147</v>
       </c>
       <c r="M6" t="n">
-        <v>-72819.34349859765</v>
+        <v>-73871.03850978582</v>
       </c>
       <c r="N6" t="n">
-        <v>-30618.51403897466</v>
+        <v>-30618.51403897465</v>
       </c>
       <c r="O6" t="n">
         <v>-58386.20808174583</v>
       </c>
       <c r="P6" t="n">
-        <v>-30618.51403897459</v>
+        <v>-30618.51403897477</v>
       </c>
     </row>
   </sheetData>
@@ -26698,7 +26698,7 @@
         <v>71.07831239473194</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542313</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542313</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26808,7 +26808,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="J4" t="n">
         <v>917.0607368443783</v>
@@ -26817,13 +26817,13 @@
         <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095205</v>
+        <v>844.4391950293145</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
         <v>776.4890963014441</v>
@@ -26920,34 +26920,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085247</v>
+        <v>59.28165692085238</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346397</v>
+        <v>34.70961755346401</v>
       </c>
       <c r="K2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660688</v>
+        <v>78.07030221924569</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551355</v>
+        <v>17.58004954287468</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346394</v>
+        <v>34.70961755346399</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542313</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485777</v>
+        <v>72.62154181506378</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773715</v>
+        <v>659.3622249971654</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407248</v>
+        <v>117.1268713042786</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,19 +27157,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085247</v>
+        <v>59.28165692085238</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346397</v>
+        <v>34.70961755346401</v>
       </c>
       <c r="P2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542313</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485777</v>
+        <v>72.62154181506378</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>353.9825132986001</v>
       </c>
       <c r="G2" t="n">
-        <v>279.0943556513831</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27467,16 +27467,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>26.66263604343202</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>27.9184993862691</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27543,10 +27543,10 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.5715133615489</v>
@@ -27555,10 +27555,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>102.7162907300112</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>200.5871513736708</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>261.7136264684324</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
@@ -27625,10 +27625,10 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
+        <v>42.35007497264513</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
@@ -27679,7 +27679,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27701,7 +27701,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>27.91849938626923</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27746,7 +27746,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>124.5704364758526</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
@@ -27783,16 +27783,16 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>101.034896885447</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>97.50796171259428</v>
       </c>
       <c r="J7" t="n">
         <v>30.07448747215907</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
@@ -27840,7 +27840,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>209.5866825387949</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>191.4015462735047</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -28014,25 +28014,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>53.73337658004151</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>210.2831670182382</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J19" t="n">
         <v>30.07448747215907</v>
@@ -28752,10 +28752,10 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>5.636002634530001</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28764,31 +28764,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>128.2979821082772</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="20">
@@ -28980,23 +28980,23 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>35.7104901066877</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
@@ -29004,7 +29004,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29092,7 +29092,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="U23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V23" t="n">
         <v>130.3599693155844</v>
@@ -29217,7 +29217,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668816</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29226,10 +29226,10 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -29241,7 +29241,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>128.2979821082772</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N26" t="n">
-        <v>30.27223765901306</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>86.65052755599618</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431644</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431644</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="29">
@@ -29539,10 +29539,10 @@
         <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.2722376590126</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>93.99127447431646</v>
@@ -29551,10 +29551,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
-        <v>30.27223765901272</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R29" t="n">
         <v>93.99127447431646</v>
@@ -29746,37 +29746,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="J32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="K32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="L32" t="n">
-        <v>86.27291196566568</v>
+        <v>43.49509683160284</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -29794,28 +29794,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>106.3364573000709</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000709</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3364573000709</v>
+        <v>76.79385455031709</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="P34" t="n">
-        <v>18.71446861254239</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
     </row>
     <row r="35">
@@ -30165,19 +30165,19 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
       <c r="N37" t="n">
-        <v>35.71049010668767</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -30189,7 +30189,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30414,10 +30414,10 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O40" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -30426,7 +30426,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>128.2979821082779</v>
+        <v>128.2979821082772</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30654,16 +30654,16 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>128.2979821082778</v>
+      </c>
+      <c r="R43" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>128.2979821082783</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30876,14 +30876,14 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
+        <v>35.71049010668722</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
@@ -30894,13 +30894,13 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>28.01250026485292</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>314.2765435022353</v>
+        <v>43.78952560586762</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542313</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>55.23572912476188</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344373</v>
+        <v>451.7331554521776</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344373</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542313</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34942,19 +34942,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344373</v>
+        <v>498.6899681413117</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542313</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>133.1892414995778</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35018,16 +35018,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>3.704701200685251</v>
+        <v>482.0731480899309</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344373</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
@@ -35173,13 +35173,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>314.3065239219562</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>327.4053600554008</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
@@ -35188,10 +35188,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
         <v>322.9688344062893</v>
@@ -35258,19 +35258,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>362.1450102553815</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>414.9454010832019</v>
       </c>
       <c r="P9" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35495,13 +35495,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="P12" t="n">
         <v>409.7185542589873</v>
@@ -35662,7 +35662,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P14" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
         <v>186.7126870110591</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>484.6198681696871</v>
       </c>
       <c r="N15" t="n">
-        <v>51.00106726098203</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35744,7 +35744,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -36048,10 +36048,10 @@
         <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>188.1733114527919</v>
+        <v>193.809314087322</v>
       </c>
       <c r="N19" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
@@ -36060,10 +36060,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>5.636002634528405</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36200,16 +36200,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>661.9265169917663</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36218,7 +36218,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>201.4959849287077</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
@@ -36291,7 +36291,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P22" t="n">
         <v>121.0870361379582</v>
@@ -36300,7 +36300,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36455,7 +36455,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>113.7820836676943</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>5.636002634529087</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
@@ -36522,10 +36522,10 @@
         <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N25" t="n">
-        <v>315.4000036905432</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
         <v>164.3482495370789</v>
@@ -36537,7 +36537,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>5.636002634528405</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36604,19 +36604,19 @@
         <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>563.4149484039242</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>444.4844453457863</v>
+        <v>531.1349729017825</v>
       </c>
       <c r="P26" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853755</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698316</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,16 +36680,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>23.49322931597565</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
         <v>236.7324157120106</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,10 +36835,10 @@
         <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
-        <v>592.2945994425274</v>
+        <v>528.5755626272236</v>
       </c>
       <c r="M29" t="n">
-        <v>645.507335125408</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N29" t="n">
         <v>627.1339852192276</v>
@@ -36847,10 +36847,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>216.9849246700718</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
         <v>56.37828989698318</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>147.0691510340248</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,13 +37066,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>252.4473390261599</v>
+        <v>258.8908014987987</v>
       </c>
       <c r="K32" t="n">
-        <v>468.9448977318505</v>
+        <v>475.3883602044894</v>
       </c>
       <c r="L32" t="n">
-        <v>584.5762369338767</v>
+        <v>541.7984217998138</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
@@ -37090,7 +37090,7 @@
         <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273758</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,19 +37145,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7334829729928</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>247.8874524576767</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37166,7 +37166,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.2619698279118</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220909</v>
+        <v>242.5793493723371</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528628</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750297</v>
+        <v>297.8199541476686</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371497</v>
+        <v>277.1281693097886</v>
       </c>
       <c r="P34" t="n">
-        <v>139.8015047505006</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.456764010152483</v>
+        <v>116.2366837828622</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37391,16 +37391,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>23.49322931597565</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
         <v>236.7324157120106</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
@@ -37470,10 +37470,10 @@
         <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N37" t="n">
-        <v>220.7505244816465</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
         <v>164.3482495370789</v>
@@ -37485,7 +37485,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37628,13 +37628,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>107.2231205187088</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N39" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
         <v>409.7185542589873</v>
@@ -37710,10 +37710,10 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905432</v>
       </c>
       <c r="O40" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
@@ -37722,7 +37722,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>5.636002634529095</v>
+        <v>5.636002634528405</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
         <v>322.9688344062893</v>
@@ -37865,19 +37865,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N42" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>233.8188708867233</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37950,16 +37950,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.456764010152483</v>
+        <v>131.7547461184303</v>
       </c>
       <c r="R43" t="n">
-        <v>5.636002634529554</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38096,22 +38096,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
-        <v>249.769892037502</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>286.7682222146707</v>
       </c>
       <c r="Q45" t="n">
         <v>236.7324157120106</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>100.2854818434253</v>
+        <v>5.636002634528147</v>
       </c>
       <c r="K46" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376044</v>
       </c>
       <c r="M46" t="n">
         <v>188.1733114527919</v>
@@ -38190,13 +38190,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>149.0995364028111</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>7.69798984183555</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
